--- a/Proyectos/2016/1/P1432 - RNCNOM, Laura Sánchez_AG/Planeación/Plan_de_proyecto.xlsx
+++ b/Proyectos/2016/1/P1432 - RNCNOM, Laura Sánchez_AG/Planeación/Plan_de_proyecto.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Presentación" sheetId="1" r:id="rId1"/>
-    <sheet name="Datos Generales" sheetId="2" r:id="rId2"/>
+    <sheet name="Datos Generales" sheetId="2" r:id="rId1"/>
+    <sheet name="Presentación" sheetId="1" r:id="rId2"/>
     <sheet name="Recursos Humanos" sheetId="3" r:id="rId3"/>
     <sheet name="Capacitaciones" sheetId="4" r:id="rId4"/>
     <sheet name="Plan Comunicación" sheetId="5" r:id="rId5"/>
@@ -22,15 +22,15 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc109545561" localSheetId="2">'Recursos Humanos'!#REF!</definedName>
-    <definedName name="_Toc120446010" localSheetId="1">'Datos Generales'!$A$5</definedName>
-    <definedName name="_Toc120446010" localSheetId="0">Presentación!$A$5</definedName>
-    <definedName name="_Toc120446011" localSheetId="1">'Datos Generales'!$A$9</definedName>
-    <definedName name="_Toc120446011" localSheetId="0">Presentación!#REF!</definedName>
+    <definedName name="_Toc120446010" localSheetId="0">'Datos Generales'!$A$5</definedName>
+    <definedName name="_Toc120446010" localSheetId="1">Presentación!$A$5</definedName>
+    <definedName name="_Toc120446011" localSheetId="0">'Datos Generales'!$A$9</definedName>
+    <definedName name="_Toc120446011" localSheetId="1">Presentación!#REF!</definedName>
     <definedName name="_Toc120446019" localSheetId="2">'Recursos Humanos'!$A$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Plan Riesgos'!$A$1:$F$24</definedName>
     <definedName name="Complej." localSheetId="4">#REF!</definedName>
     <definedName name="Complej." localSheetId="6">#REF!</definedName>
-    <definedName name="Complej." localSheetId="0">#REF!</definedName>
+    <definedName name="Complej." localSheetId="1">#REF!</definedName>
     <definedName name="Complej.">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4">#REF!</definedName>
@@ -1601,6 +1601,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1624,7 +1625,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2287,137 +2287,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMH9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1"/>
-    <col min="2" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="34.140625" style="1"/>
-    <col min="4" max="254" width="11.42578125" style="1"/>
-    <col min="255" max="255" width="2.7109375" style="1"/>
-    <col min="256" max="256" width="19.7109375" style="1"/>
-    <col min="257" max="257" width="8.85546875" style="1"/>
-    <col min="258" max="258" width="34.140625" style="1"/>
-    <col min="259" max="259" width="22.85546875" style="1"/>
-    <col min="260" max="510" width="11.42578125" style="1"/>
-    <col min="511" max="511" width="2.7109375" style="1"/>
-    <col min="512" max="512" width="19.7109375" style="1"/>
-    <col min="513" max="513" width="8.85546875" style="1"/>
-    <col min="514" max="514" width="34.140625" style="1"/>
-    <col min="515" max="515" width="22.85546875" style="1"/>
-    <col min="516" max="766" width="11.42578125" style="1"/>
-    <col min="767" max="767" width="2.7109375" style="1"/>
-    <col min="768" max="768" width="19.7109375" style="1"/>
-    <col min="769" max="769" width="8.85546875" style="1"/>
-    <col min="770" max="770" width="34.140625" style="1"/>
-    <col min="771" max="771" width="22.85546875" style="1"/>
-    <col min="772" max="1022" width="11.42578125" style="1"/>
-    <col min="1023" max="1025" width="11.42578125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-    </row>
-    <row r="2" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="145" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="145"/>
-    </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="145" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="145"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="145" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="145"/>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="144" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="144"/>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="145" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="145"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="146" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="146"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -3468,10 +3340,10 @@
       <c r="AMI1"/>
     </row>
     <row r="2" spans="1:1023" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="147"/>
+      <c r="B2" s="148"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -4515,42 +4387,42 @@
       <c r="D4"/>
     </row>
     <row r="5" spans="1:1023" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="147"/>
+      <c r="B5" s="148"/>
       <c r="C5"/>
       <c r="D5"/>
     </row>
     <row r="6" spans="1:1023" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="145"/>
+      <c r="B6" s="146"/>
       <c r="C6"/>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:1023" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="147"/>
+      <c r="B7" s="148"/>
       <c r="C7"/>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:1023" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="145"/>
+      <c r="B8" s="146"/>
       <c r="C8"/>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:1023" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="147"/>
+      <c r="B9" s="148"/>
       <c r="C9"/>
       <c r="D9"/>
     </row>
@@ -4589,12 +4461,12 @@
       <c r="D13"/>
     </row>
     <row r="14" spans="1:1023" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
     </row>
     <row r="15" spans="1:1023" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
@@ -4676,10 +4548,10 @@
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="147" t="s">
+      <c r="A23" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="147"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="59.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4690,50 +4562,45 @@
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="147" t="s">
+      <c r="A25" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="147"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="53.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="151" t="s">
+      <c r="A26" s="152" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="151"/>
+      <c r="B26" s="152"/>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="147" t="s">
+      <c r="A27" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="147"/>
+      <c r="B27" s="148"/>
     </row>
     <row r="28" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="149" t="s">
         <v>162</v>
       </c>
-      <c r="B28" s="149"/>
+      <c r="B28" s="150"/>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="147"/>
+      <c r="B29" s="148"/>
     </row>
     <row r="30" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="150" t="s">
+      <c r="A30" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="150"/>
+      <c r="B30" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -4743,10 +4610,143 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
   </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMH9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="34.140625" style="1"/>
+    <col min="4" max="254" width="11.42578125" style="1"/>
+    <col min="255" max="255" width="2.7109375" style="1"/>
+    <col min="256" max="256" width="19.7109375" style="1"/>
+    <col min="257" max="257" width="8.85546875" style="1"/>
+    <col min="258" max="258" width="34.140625" style="1"/>
+    <col min="259" max="259" width="22.85546875" style="1"/>
+    <col min="260" max="510" width="11.42578125" style="1"/>
+    <col min="511" max="511" width="2.7109375" style="1"/>
+    <col min="512" max="512" width="19.7109375" style="1"/>
+    <col min="513" max="513" width="8.85546875" style="1"/>
+    <col min="514" max="514" width="34.140625" style="1"/>
+    <col min="515" max="515" width="22.85546875" style="1"/>
+    <col min="516" max="766" width="11.42578125" style="1"/>
+    <col min="767" max="767" width="2.7109375" style="1"/>
+    <col min="768" max="768" width="19.7109375" style="1"/>
+    <col min="769" max="769" width="8.85546875" style="1"/>
+    <col min="770" max="770" width="34.140625" style="1"/>
+    <col min="771" max="771" width="22.85546875" style="1"/>
+    <col min="772" max="1022" width="11.42578125" style="1"/>
+    <col min="1023" max="1025" width="11.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+    </row>
+    <row r="2" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="146" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="146"/>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="146"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="146" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="146"/>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="145" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="145"/>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="146"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="147" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="147"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -4931,7 +4931,7 @@
       <c r="B13" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="153">
+      <c r="C13" s="144">
         <v>8183568343</v>
       </c>
       <c r="D13" s="142" t="s">
@@ -6211,13 +6211,13 @@
       <c r="AMI1"/>
     </row>
     <row r="2" spans="1:1023" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -9420,15 +9420,15 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
